--- a/TakeHomePayGrossPP58_2024.xlsx
+++ b/TakeHomePayGrossPP58_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863532B5-D1C5-4624-9673-066E3503194B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6AFE98-F6E4-4453-A14E-F0A01851CB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="DaftarTarifEfektif" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="TER">DaftarTarifEfektif!$H$2:$I$9</definedName>
-    <definedName name="TERA">DaftarTarifEfektif!$B$2:$E$45</definedName>
-    <definedName name="TERB">DaftarTarifEfektif!$B$46:$E$85</definedName>
-    <definedName name="TERC">DaftarTarifEfektif!$B$86:$E$126</definedName>
+    <definedName name="TER">DaftarTarifEfektif!$H$4:$I$11</definedName>
+    <definedName name="TERA">DaftarTarifEfektif!$B$4:$E$47</definedName>
+    <definedName name="TERB">DaftarTarifEfektif!$B$48:$E$87</definedName>
+    <definedName name="TERC">DaftarTarifEfektif!$B$88:$E$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="99">
   <si>
     <t>Jenis TER</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>TarifEfektif</t>
-  </si>
-  <si>
-    <t>PPh</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -318,13 +312,31 @@
     <t>Take Home Pay</t>
   </si>
   <si>
-    <t>Contoh Perhitungan Take Home Pay Metode Gross dan PPh Januari 2024 menurut PP Nomor 58 Tahun 2023</t>
-  </si>
-  <si>
     <t>Mahasiswa Universitas Pelita Harapan Medan</t>
   </si>
   <si>
-    <t>By: Felicia Fortuna</t>
+    <t>By: Felicia Fortuna (Accounger)</t>
+  </si>
+  <si>
+    <t>Berdasarkan Lampiran PP Nomor 58 Tahun 2023 tentang Tarif Pemotongan PPh 21 menggunakan Tarif Efektif (TER)</t>
+  </si>
+  <si>
+    <t>Contoh Perhitungan Take Home Pay Metode Gross dan PPh Januari 2024 menurut PP Nomor 58 Tahun 2023 tentang Tarif Pemotongan PPh 21 menggunakan Tarif Efektif (TER)</t>
+  </si>
+  <si>
+    <t>Tarif Efektif</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Perhatian: hanya digunakan untuk perhitungan PPh Januari s/d November, untuk PPh masa terakhir adalah menggunakan Tarif PPh 17 dikurangi dengan Total PPh Januari s/d November yang sudah dipotong</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Sebagai Perwujudan Ilmu yang telah dipelajari</t>
   </si>
 </sst>
 </file>
@@ -335,7 +347,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +377,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -507,7 +535,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -525,6 +553,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,14 +568,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -824,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C715A7-E6C3-44EF-9FF8-3ED308E11119}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,1402 +873,1421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>92</v>
+      <c r="A1" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="K8" s="26" t="str">
+        <f>"PPh " &amp;B6</f>
+        <v>PPh Januari</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <f>D9+E9+F9+G9+H9</f>
+        <v>10000000</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,CHOOSE(VLOOKUP(C9,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="20">
+        <f>I9*J9</f>
+        <v>200000</v>
+      </c>
+      <c r="L9" s="20">
+        <f>I9-K9</f>
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:I16" si="1">D10+E10+F10+G10+H10</f>
+        <v>10000000</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" ref="K10:K16" si="2">I10*J10</f>
+        <v>200000</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" ref="L10:L40" si="3">I10-K10</f>
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" si="3"/>
+        <v>9850000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" si="3"/>
+        <v>9850000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="3"/>
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="3"/>
+        <v>9850000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" si="3"/>
+        <v>9850000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="3"/>
+        <v>9850000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f>D6+E6+F6+G6+H6</f>
-        <v>10000000</v>
-      </c>
-      <c r="J6" s="21">
-        <f>VLOOKUP(I6,CHOOSE(VLOOKUP(C6,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.02</v>
-      </c>
-      <c r="K6" s="25">
-        <f>I6*J6</f>
-        <v>200000</v>
-      </c>
-      <c r="L6" s="25">
-        <f>I6-K6</f>
-        <v>9800000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D17" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <f>D17+E17+F17+G17+H17</f>
+        <v>20000000</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="K17" s="20">
+        <f>I17*J17</f>
+        <v>1800000</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="3"/>
+        <v>18200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <f t="shared" ref="I7:I13" si="0">D7+E7+F7+G7+H7</f>
-        <v>10000000</v>
-      </c>
-      <c r="J7" s="21">
-        <f>VLOOKUP(I7,CHOOSE(VLOOKUP(C7,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.02</v>
-      </c>
-      <c r="K7" s="25">
-        <f t="shared" ref="K7:K13" si="1">I7*J7</f>
-        <v>200000</v>
-      </c>
-      <c r="L7" s="25">
-        <f t="shared" ref="L7:L37" si="2">I7-K7</f>
-        <v>9800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D18" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" ref="I18:I24" si="4">D18+E18+F18+G18+H18</f>
+        <v>20000000</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" ref="K18:K24" si="5">I18*J18</f>
+        <v>1800000</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="3"/>
+        <v>18200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
-      <c r="I8" s="25">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="J8" s="21">
-        <f>VLOOKUP(I8,CHOOSE(VLOOKUP(C8,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K8" s="25">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="L8" s="25">
-        <f t="shared" si="2"/>
-        <v>9850000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D19" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="5"/>
+        <v>1600000</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="3"/>
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="J9" s="21">
-        <f>VLOOKUP(I9,CHOOSE(VLOOKUP(C9,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K9" s="25">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="L9" s="25">
-        <f t="shared" si="2"/>
-        <v>9850000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D20" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="5"/>
+        <v>1600000</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" si="3"/>
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="25">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="J10" s="21">
-        <f>VLOOKUP(I10,CHOOSE(VLOOKUP(C10,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.02</v>
-      </c>
-      <c r="K10" s="25">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" si="2"/>
-        <v>9800000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D21" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="5"/>
+        <v>1800000</v>
+      </c>
+      <c r="L21" s="20">
+        <f t="shared" si="3"/>
+        <v>18200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="J11" s="21">
-        <f>VLOOKUP(I11,CHOOSE(VLOOKUP(C11,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K11" s="25">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="L11" s="25">
-        <f t="shared" si="2"/>
-        <v>9850000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D22" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="5"/>
+        <v>1600000</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="3"/>
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="J12" s="21">
-        <f>VLOOKUP(I12,CHOOSE(VLOOKUP(C12,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K12" s="25">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="L12" s="25">
-        <f t="shared" si="2"/>
-        <v>9850000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D23" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="5"/>
+        <v>1600000</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" si="3"/>
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="J13" s="21">
-        <f>VLOOKUP(I13,CHOOSE(VLOOKUP(C13,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K13" s="25">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="L13" s="25">
-        <f t="shared" si="2"/>
-        <v>9850000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D24" s="20">
+        <v>20000000</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="5"/>
+        <v>1600000</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="3"/>
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <f>D14+E14+F14+G14+H14</f>
-        <v>20000000</v>
-      </c>
-      <c r="J14" s="21">
-        <f>VLOOKUP(I14,CHOOSE(VLOOKUP(C14,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.09</v>
-      </c>
-      <c r="K14" s="25">
-        <f>I14*J14</f>
-        <v>1800000</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" si="2"/>
-        <v>18200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D25" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" ref="I25:I40" si="6">D25+E25+F25+G25+H25</f>
+        <v>30000000</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" ref="K25:K40" si="7">I25*J25</f>
+        <v>3600000</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" si="3"/>
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25">
-        <f t="shared" ref="I15:I21" si="3">D15+E15+F15+G15+H15</f>
-        <v>20000000</v>
-      </c>
-      <c r="J15" s="21">
-        <f>VLOOKUP(I15,CHOOSE(VLOOKUP(C15,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.09</v>
-      </c>
-      <c r="K15" s="25">
-        <f t="shared" ref="K15:K21" si="4">I15*J15</f>
-        <v>1800000</v>
-      </c>
-      <c r="L15" s="25">
-        <f t="shared" si="2"/>
-        <v>18200000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D26" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <f t="shared" si="6"/>
+        <v>30000000</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="7"/>
+        <v>3600000</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="3"/>
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
-      <c r="I16" s="25">
+      <c r="D27" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" si="6"/>
+        <v>30000000</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="7"/>
+        <v>3600000</v>
+      </c>
+      <c r="L27" s="20">
         <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="J16" s="21">
-        <f>VLOOKUP(I16,CHOOSE(VLOOKUP(C16,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K16" s="25">
-        <f t="shared" si="4"/>
-        <v>1600000</v>
-      </c>
-      <c r="L16" s="25">
-        <f t="shared" si="2"/>
-        <v>18400000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="D28" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="6"/>
+        <v>30000000</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="7"/>
+        <v>3600000</v>
+      </c>
+      <c r="L28" s="20">
         <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="J17" s="21">
-        <f>VLOOKUP(I17,CHOOSE(VLOOKUP(C17,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K17" s="25">
-        <f t="shared" si="4"/>
-        <v>1600000</v>
-      </c>
-      <c r="L17" s="25">
-        <f t="shared" si="2"/>
-        <v>18400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
-      <c r="I18" s="25">
+      <c r="D29" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20">
+        <f t="shared" si="6"/>
+        <v>30000000</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="7"/>
+        <v>3600000</v>
+      </c>
+      <c r="L29" s="20">
         <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="J18" s="21">
-        <f>VLOOKUP(I18,CHOOSE(VLOOKUP(C18,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.09</v>
-      </c>
-      <c r="K18" s="25">
-        <f t="shared" si="4"/>
-        <v>1800000</v>
-      </c>
-      <c r="L18" s="25">
-        <f t="shared" si="2"/>
-        <v>18200000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="D30" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20">
+        <f t="shared" si="6"/>
+        <v>30000000</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K30" s="20">
+        <f t="shared" si="7"/>
+        <v>3600000</v>
+      </c>
+      <c r="L30" s="20">
         <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="J19" s="21">
-        <f>VLOOKUP(I19,CHOOSE(VLOOKUP(C19,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K19" s="25">
-        <f t="shared" si="4"/>
-        <v>1600000</v>
-      </c>
-      <c r="L19" s="25">
-        <f t="shared" si="2"/>
-        <v>18400000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25">
+      <c r="D31" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20">
+        <f t="shared" si="6"/>
+        <v>30000000</v>
+      </c>
+      <c r="J31" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="7"/>
+        <v>3600000</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="J20" s="21">
-        <f>VLOOKUP(I20,CHOOSE(VLOOKUP(C20,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K20" s="25">
-        <f t="shared" si="4"/>
-        <v>1600000</v>
-      </c>
-      <c r="L20" s="25">
-        <f t="shared" si="2"/>
-        <v>18400000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="25">
-        <v>20000000</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="D32" s="20">
+        <v>30000000</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20">
+        <f t="shared" si="6"/>
+        <v>30000000</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="7"/>
+        <v>3300000</v>
+      </c>
+      <c r="L32" s="20">
         <f t="shared" si="3"/>
-        <v>20000000</v>
-      </c>
-      <c r="J21" s="21">
-        <f>VLOOKUP(I21,CHOOSE(VLOOKUP(C21,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K21" s="25">
-        <f t="shared" si="4"/>
-        <v>1600000</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="2"/>
-        <v>18400000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
+        <v>26700000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
-        <f t="shared" ref="I22:I37" si="5">D22+E22+F22+G22+H22</f>
-        <v>30000000</v>
-      </c>
-      <c r="J22" s="21">
-        <f>VLOOKUP(I22,CHOOSE(VLOOKUP(C22,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K22" s="25">
-        <f t="shared" ref="K22:K37" si="6">I22*J22</f>
-        <v>3600000</v>
-      </c>
-      <c r="L22" s="25">
-        <f t="shared" si="2"/>
-        <v>26400000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D33" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="6"/>
+        <v>100000000</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K33" s="20">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" si="3"/>
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0</v>
-      </c>
-      <c r="I23" s="25">
-        <f t="shared" si="5"/>
-        <v>30000000</v>
-      </c>
-      <c r="J23" s="21">
-        <f>VLOOKUP(I23,CHOOSE(VLOOKUP(C23,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K23" s="25">
+      <c r="D34" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
         <f t="shared" si="6"/>
-        <v>3600000</v>
-      </c>
-      <c r="L23" s="25">
-        <f t="shared" si="2"/>
-        <v>26400000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
+        <v>100000000</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K34" s="20">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="L34" s="20">
+        <f t="shared" si="3"/>
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
-      <c r="H24" s="25">
-        <v>0</v>
-      </c>
-      <c r="I24" s="25">
-        <f t="shared" si="5"/>
-        <v>30000000</v>
-      </c>
-      <c r="J24" s="21">
-        <f>VLOOKUP(I24,CHOOSE(VLOOKUP(C24,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K24" s="25">
+      <c r="D35" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
         <f t="shared" si="6"/>
-        <v>3600000</v>
-      </c>
-      <c r="L24" s="25">
-        <f t="shared" si="2"/>
-        <v>26400000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
+        <v>100000000</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K35" s="20">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="3"/>
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="25">
-        <f t="shared" si="5"/>
-        <v>30000000</v>
-      </c>
-      <c r="J25" s="21">
-        <f>VLOOKUP(I25,CHOOSE(VLOOKUP(C25,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K25" s="25">
+      <c r="D36" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
         <f t="shared" si="6"/>
-        <v>3600000</v>
-      </c>
-      <c r="L25" s="25">
-        <f t="shared" si="2"/>
-        <v>26400000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
+        <v>100000000</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="3"/>
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="25">
-        <f t="shared" si="5"/>
-        <v>30000000</v>
-      </c>
-      <c r="J26" s="21">
-        <f>VLOOKUP(I26,CHOOSE(VLOOKUP(C26,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K26" s="25">
+      <c r="D37" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0</v>
+      </c>
+      <c r="F37" s="20">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0</v>
+      </c>
+      <c r="H37" s="20">
+        <v>0</v>
+      </c>
+      <c r="I37" s="20">
         <f t="shared" si="6"/>
-        <v>3600000</v>
-      </c>
-      <c r="L26" s="25">
-        <f t="shared" si="2"/>
-        <v>26400000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
+        <v>100000000</v>
+      </c>
+      <c r="J37" s="17">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" si="3"/>
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E27" s="25">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25">
-        <v>0</v>
-      </c>
-      <c r="I27" s="25">
-        <f t="shared" si="5"/>
-        <v>30000000</v>
-      </c>
-      <c r="J27" s="21">
-        <f>VLOOKUP(I27,CHOOSE(VLOOKUP(C27,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K27" s="25">
+      <c r="D38" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0</v>
+      </c>
+      <c r="F38" s="20">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20">
         <f t="shared" si="6"/>
-        <v>3600000</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="2"/>
-        <v>26400000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
+        <v>100000000</v>
+      </c>
+      <c r="J38" s="17">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K38" s="20">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="L38" s="20">
+        <f t="shared" si="3"/>
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E28" s="25">
-        <v>0</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25">
-        <v>0</v>
-      </c>
-      <c r="I28" s="25">
-        <f t="shared" si="5"/>
-        <v>30000000</v>
-      </c>
-      <c r="J28" s="21">
-        <f>VLOOKUP(I28,CHOOSE(VLOOKUP(C28,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K28" s="25">
+      <c r="D39" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20">
         <f t="shared" si="6"/>
-        <v>3600000</v>
-      </c>
-      <c r="L28" s="25">
-        <f t="shared" si="2"/>
-        <v>26400000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
+        <v>100000000</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" si="3"/>
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="25">
-        <v>30000000</v>
-      </c>
-      <c r="E29" s="25">
-        <v>0</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0</v>
-      </c>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
-      <c r="H29" s="25">
-        <v>0</v>
-      </c>
-      <c r="I29" s="25">
-        <f t="shared" si="5"/>
-        <v>30000000</v>
-      </c>
-      <c r="J29" s="21">
-        <f>VLOOKUP(I29,CHOOSE(VLOOKUP(C29,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.11</v>
-      </c>
-      <c r="K29" s="25">
+      <c r="D40" s="20">
+        <v>100000000</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20">
         <f t="shared" si="6"/>
-        <v>3300000</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" si="2"/>
-        <v>26700000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="25">
         <v>100000000</v>
       </c>
-      <c r="E30" s="25">
-        <v>0</v>
-      </c>
-      <c r="F30" s="25">
-        <v>0</v>
-      </c>
-      <c r="G30" s="25">
-        <v>0</v>
-      </c>
-      <c r="H30" s="25">
-        <v>0</v>
-      </c>
-      <c r="I30" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J30" s="21">
-        <f>VLOOKUP(I30,CHOOSE(VLOOKUP(C30,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
+      <c r="J40" s="17">
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K30" s="25">
-        <f t="shared" si="6"/>
+      <c r="K40" s="20">
+        <f t="shared" si="7"/>
         <v>24000000</v>
       </c>
-      <c r="L30" s="25">
-        <f t="shared" si="2"/>
-        <v>76000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="25">
-        <v>100000000</v>
-      </c>
-      <c r="E31" s="25">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25">
-        <v>0</v>
-      </c>
-      <c r="G31" s="25">
-        <v>0</v>
-      </c>
-      <c r="H31" s="25">
-        <v>0</v>
-      </c>
-      <c r="I31" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J31" s="21">
-        <f>VLOOKUP(I31,CHOOSE(VLOOKUP(C31,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.24</v>
-      </c>
-      <c r="K31" s="25">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="L31" s="25">
-        <f t="shared" si="2"/>
-        <v>76000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="25">
-        <v>100000000</v>
-      </c>
-      <c r="E32" s="25">
-        <v>0</v>
-      </c>
-      <c r="F32" s="25">
-        <v>0</v>
-      </c>
-      <c r="G32" s="25">
-        <v>0</v>
-      </c>
-      <c r="H32" s="25">
-        <v>0</v>
-      </c>
-      <c r="I32" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J32" s="21">
-        <f>VLOOKUP(I32,CHOOSE(VLOOKUP(C32,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.24</v>
-      </c>
-      <c r="K32" s="25">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="L32" s="25">
-        <f t="shared" si="2"/>
-        <v>76000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="25">
-        <v>100000000</v>
-      </c>
-      <c r="E33" s="25">
-        <v>0</v>
-      </c>
-      <c r="F33" s="25">
-        <v>0</v>
-      </c>
-      <c r="G33" s="25">
-        <v>0</v>
-      </c>
-      <c r="H33" s="25">
-        <v>0</v>
-      </c>
-      <c r="I33" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J33" s="21">
-        <f>VLOOKUP(I33,CHOOSE(VLOOKUP(C33,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.24</v>
-      </c>
-      <c r="K33" s="25">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="L33" s="25">
-        <f t="shared" si="2"/>
-        <v>76000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="25">
-        <v>100000000</v>
-      </c>
-      <c r="E34" s="25">
-        <v>0</v>
-      </c>
-      <c r="F34" s="25">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
-        <v>0</v>
-      </c>
-      <c r="I34" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J34" s="21">
-        <f>VLOOKUP(I34,CHOOSE(VLOOKUP(C34,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.24</v>
-      </c>
-      <c r="K34" s="25">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="L34" s="25">
-        <f t="shared" si="2"/>
-        <v>76000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="25">
-        <v>100000000</v>
-      </c>
-      <c r="E35" s="25">
-        <v>0</v>
-      </c>
-      <c r="F35" s="25">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <v>0</v>
-      </c>
-      <c r="I35" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J35" s="21">
-        <f>VLOOKUP(I35,CHOOSE(VLOOKUP(C35,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.24</v>
-      </c>
-      <c r="K35" s="25">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="L35" s="25">
-        <f t="shared" si="2"/>
-        <v>76000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="25">
-        <v>100000000</v>
-      </c>
-      <c r="E36" s="25">
-        <v>0</v>
-      </c>
-      <c r="F36" s="25">
-        <v>0</v>
-      </c>
-      <c r="G36" s="25">
-        <v>0</v>
-      </c>
-      <c r="H36" s="25">
-        <v>0</v>
-      </c>
-      <c r="I36" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J36" s="21">
-        <f>VLOOKUP(I36,CHOOSE(VLOOKUP(C36,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.24</v>
-      </c>
-      <c r="K36" s="25">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="L36" s="25">
-        <f t="shared" si="2"/>
-        <v>76000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="25">
-        <v>100000000</v>
-      </c>
-      <c r="E37" s="25">
-        <v>0</v>
-      </c>
-      <c r="F37" s="25">
-        <v>0</v>
-      </c>
-      <c r="G37" s="25">
-        <v>0</v>
-      </c>
-      <c r="H37" s="25">
-        <v>0</v>
-      </c>
-      <c r="I37" s="25">
-        <f t="shared" si="5"/>
-        <v>100000000</v>
-      </c>
-      <c r="J37" s="21">
-        <f>VLOOKUP(I37,CHOOSE(VLOOKUP(C37,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
-        <v>0.24</v>
-      </c>
-      <c r="K37" s="25">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="L37" s="25">
-        <f t="shared" si="2"/>
+      <c r="L40" s="20">
+        <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
@@ -2252,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,81 +2318,32 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="7" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="12">
-        <v>5400000</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11">
-        <f>D2</f>
-        <v>5400000</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="12">
-        <v>5650000</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,24 +2351,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="11">
-        <f>D3</f>
-        <v>5650000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="12">
-        <v>5950000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>5400000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="13">
         <v>1</v>
@@ -2380,27 +2378,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <f t="shared" ref="B5:B68" si="0">D4</f>
-        <v>5950000</v>
+        <f>D4</f>
+        <v>5400000</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="12">
-        <v>6300000</v>
+        <v>5650000</v>
       </c>
       <c r="E5" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I5" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2408,27 +2406,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <f t="shared" si="0"/>
-        <v>6300000</v>
+        <f>D5</f>
+        <v>5650000</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12">
-        <v>6750000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>5950000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2436,24 +2434,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="11">
-        <f t="shared" si="0"/>
-        <v>6750000</v>
+        <f t="shared" ref="B7:B70" si="0">D6</f>
+        <v>5950000</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12">
-        <v>7500000</v>
+        <v>6300000</v>
       </c>
       <c r="E7" s="5">
-        <v>1.2500000000000001E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="13">
         <v>2</v>
@@ -2465,54 +2463,54 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>7500000</v>
+        <v>6300000</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="12">
-        <v>8550000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>6750000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>8550000</v>
+        <v>6750000</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
-        <v>9650000</v>
+        <v>7500000</v>
       </c>
       <c r="E9" s="5">
-        <v>1.7500000000000002E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="14">
-        <v>3</v>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2521,37 +2519,55 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>9650000</v>
+        <v>7500000</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="12">
-        <v>10050000</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8550000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>10050000</v>
+        <v>8550000</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
-        <v>10350000</v>
+        <v>9650000</v>
       </c>
       <c r="E11" s="5">
-        <v>2.2499999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="F11" s="1"/>
+      <c r="G11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -2559,18 +2575,18 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>10350000</v>
+        <v>9650000</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="12">
-        <v>10700000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>10050000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2578,18 +2594,18 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>10700000</v>
+        <v>10050000</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
-        <v>11050000</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>10350000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2597,25 +2613,18 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>11050000</v>
+        <v>10350000</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="12">
-        <v>11600000</v>
+        <v>10700000</v>
       </c>
       <c r="E14" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <f>VLOOKUP(L14,H2:I9,2,FALSE)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2623,16 +2632,16 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>11600000</v>
+        <v>10700000</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
-        <v>12500000</v>
+        <v>11050000</v>
       </c>
       <c r="E15" s="4">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -2642,18 +2651,25 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>12500000</v>
+        <v>11050000</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="12">
-        <v>13750000</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>11600000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <f>VLOOKUP(L16,H4:I11,2,FALSE)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -2661,16 +2677,16 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>13750000</v>
+        <v>11600000</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="12">
-        <v>15100000</v>
+        <v>12500000</v>
       </c>
       <c r="E17" s="4">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -2680,16 +2696,16 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>15100000</v>
+        <v>12500000</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="12">
-        <v>16950000</v>
+        <v>13750000</v>
       </c>
       <c r="E18" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -2699,16 +2715,16 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>16950000</v>
+        <v>13750000</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="12">
-        <v>19750000</v>
+        <v>15100000</v>
       </c>
       <c r="E19" s="4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -2718,16 +2734,16 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>19750000</v>
+        <v>15100000</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="12">
-        <v>24150000</v>
+        <v>16950000</v>
       </c>
       <c r="E20" s="4">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -2737,16 +2753,16 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>24150000</v>
+        <v>16950000</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="12">
-        <v>26450000</v>
+        <v>19750000</v>
       </c>
       <c r="E21" s="4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2756,16 +2772,16 @@
       </c>
       <c r="B22" s="11">
         <f t="shared" si="0"/>
-        <v>26450000</v>
+        <v>19750000</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="12">
-        <v>28000000</v>
+        <v>24150000</v>
       </c>
       <c r="E22" s="4">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2775,16 +2791,16 @@
       </c>
       <c r="B23" s="11">
         <f t="shared" si="0"/>
-        <v>28000000</v>
+        <v>24150000</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="12">
-        <v>30050000</v>
+        <v>26450000</v>
       </c>
       <c r="E23" s="4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -2794,16 +2810,16 @@
       </c>
       <c r="B24" s="11">
         <f t="shared" si="0"/>
-        <v>30050000</v>
+        <v>26450000</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="12">
-        <v>32400000</v>
+        <v>28000000</v>
       </c>
       <c r="E24" s="4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -2813,16 +2829,16 @@
       </c>
       <c r="B25" s="11">
         <f t="shared" si="0"/>
-        <v>32400000</v>
+        <v>28000000</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="12">
-        <v>35400000</v>
+        <v>30050000</v>
       </c>
       <c r="E25" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -2832,16 +2848,16 @@
       </c>
       <c r="B26" s="11">
         <f t="shared" si="0"/>
-        <v>35400000</v>
+        <v>30050000</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="12">
-        <v>39100000</v>
+        <v>32400000</v>
       </c>
       <c r="E26" s="4">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2851,16 +2867,16 @@
       </c>
       <c r="B27" s="11">
         <f t="shared" si="0"/>
-        <v>39100000</v>
+        <v>32400000</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="12">
-        <v>43850000</v>
+        <v>35400000</v>
       </c>
       <c r="E27" s="4">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -2870,16 +2886,16 @@
       </c>
       <c r="B28" s="11">
         <f t="shared" si="0"/>
-        <v>43850000</v>
+        <v>35400000</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="12">
-        <v>47800000</v>
+        <v>39100000</v>
       </c>
       <c r="E28" s="4">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2889,16 +2905,16 @@
       </c>
       <c r="B29" s="11">
         <f t="shared" si="0"/>
-        <v>47800000</v>
+        <v>39100000</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="12">
-        <v>51400000</v>
+        <v>43850000</v>
       </c>
       <c r="E29" s="4">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -2908,16 +2924,16 @@
       </c>
       <c r="B30" s="11">
         <f t="shared" si="0"/>
-        <v>51400000</v>
+        <v>43850000</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="12">
-        <v>56300000</v>
+        <v>47800000</v>
       </c>
       <c r="E30" s="4">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2927,16 +2943,16 @@
       </c>
       <c r="B31" s="11">
         <f t="shared" si="0"/>
-        <v>56300000</v>
+        <v>47800000</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="12">
-        <v>62200000</v>
+        <v>51400000</v>
       </c>
       <c r="E31" s="4">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2946,16 +2962,16 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="0"/>
-        <v>62200000</v>
+        <v>51400000</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="12">
-        <v>68600000</v>
+        <v>56300000</v>
       </c>
       <c r="E32" s="4">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -2965,16 +2981,16 @@
       </c>
       <c r="B33" s="11">
         <f t="shared" si="0"/>
-        <v>68600000</v>
+        <v>56300000</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="12">
-        <v>77500000</v>
+        <v>62200000</v>
       </c>
       <c r="E33" s="4">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -2984,16 +3000,16 @@
       </c>
       <c r="B34" s="11">
         <f t="shared" si="0"/>
-        <v>77500000</v>
+        <v>62200000</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="12">
-        <v>89000000</v>
+        <v>68600000</v>
       </c>
       <c r="E34" s="4">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -3003,16 +3019,16 @@
       </c>
       <c r="B35" s="11">
         <f t="shared" si="0"/>
-        <v>89000000</v>
+        <v>68600000</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="12">
-        <v>103000000</v>
+        <v>77500000</v>
       </c>
       <c r="E35" s="4">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -3022,16 +3038,16 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" si="0"/>
-        <v>103000000</v>
+        <v>77500000</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="12">
-        <v>125000000</v>
+        <v>89000000</v>
       </c>
       <c r="E36" s="4">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -3041,16 +3057,16 @@
       </c>
       <c r="B37" s="11">
         <f t="shared" si="0"/>
-        <v>125000000</v>
+        <v>89000000</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="12">
-        <v>157000000</v>
+        <v>103000000</v>
       </c>
       <c r="E37" s="4">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -3060,16 +3076,16 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="0"/>
-        <v>157000000</v>
+        <v>103000000</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="12">
-        <v>206000000</v>
+        <v>125000000</v>
       </c>
       <c r="E38" s="4">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -3079,16 +3095,16 @@
       </c>
       <c r="B39" s="11">
         <f t="shared" si="0"/>
-        <v>206000000</v>
+        <v>125000000</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="12">
-        <v>337000000</v>
+        <v>157000000</v>
       </c>
       <c r="E39" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -3098,16 +3114,16 @@
       </c>
       <c r="B40" s="11">
         <f t="shared" si="0"/>
-        <v>337000000</v>
+        <v>157000000</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="12">
-        <v>454000000</v>
+        <v>206000000</v>
       </c>
       <c r="E40" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -3117,16 +3133,16 @@
       </c>
       <c r="B41" s="11">
         <f t="shared" si="0"/>
-        <v>454000000</v>
+        <v>206000000</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="12">
-        <v>550000000</v>
+        <v>337000000</v>
       </c>
       <c r="E41" s="4">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F41" s="2"/>
     </row>
@@ -3136,16 +3152,16 @@
       </c>
       <c r="B42" s="11">
         <f t="shared" si="0"/>
-        <v>550000000</v>
+        <v>337000000</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="12">
-        <v>695000000</v>
+        <v>454000000</v>
       </c>
       <c r="E42" s="4">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -3155,16 +3171,16 @@
       </c>
       <c r="B43" s="11">
         <f t="shared" si="0"/>
-        <v>695000000</v>
+        <v>454000000</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="12">
-        <v>910000000</v>
+        <v>550000000</v>
       </c>
       <c r="E43" s="4">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F43" s="2"/>
     </row>
@@ -3174,16 +3190,16 @@
       </c>
       <c r="B44" s="11">
         <f t="shared" si="0"/>
-        <v>910000000</v>
+        <v>550000000</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="12">
-        <v>1400000000</v>
+        <v>695000000</v>
       </c>
       <c r="E44" s="4">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F44" s="2"/>
     </row>
@@ -3191,75 +3207,75 @@
       <c r="A45" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="18">
-        <v>1400000000</v>
+      <c r="B45" s="11">
+        <f t="shared" si="0"/>
+        <v>695000000</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="19">
-        <v>1000000000000</v>
+      <c r="D45" s="12">
+        <v>910000000</v>
       </c>
       <c r="E45" s="4">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B46" s="11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>910000000</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="12">
-        <v>6200000</v>
+        <v>1400000000</v>
       </c>
       <c r="E46" s="4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="11">
-        <f t="shared" si="0"/>
-        <v>6200000</v>
+        <v>4</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1400000000</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="12">
-        <v>6500000</v>
-      </c>
-      <c r="E47" s="5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F47" s="1"/>
+      <c r="D47" s="16">
+        <v>1000000000000</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="11">
-        <f t="shared" si="0"/>
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="12">
-        <v>6850000</v>
-      </c>
-      <c r="E48" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>6200000</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
@@ -3267,16 +3283,16 @@
       </c>
       <c r="B49" s="11">
         <f t="shared" si="0"/>
-        <v>6850000</v>
+        <v>6200000</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="12">
-        <v>7300000</v>
+        <v>6500000</v>
       </c>
       <c r="E49" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -3286,18 +3302,18 @@
       </c>
       <c r="B50" s="11">
         <f t="shared" si="0"/>
-        <v>7300000</v>
+        <v>6500000</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="12">
-        <v>9200000</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>6850000</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -3305,16 +3321,16 @@
       </c>
       <c r="B51" s="11">
         <f t="shared" si="0"/>
-        <v>9200000</v>
+        <v>6850000</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="12">
-        <v>10750000</v>
+        <v>7300000</v>
       </c>
       <c r="E51" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -3324,16 +3340,16 @@
       </c>
       <c r="B52" s="11">
         <f t="shared" si="0"/>
-        <v>10750000</v>
+        <v>7300000</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="12">
-        <v>11250000</v>
+        <v>9200000</v>
       </c>
       <c r="E52" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -3343,16 +3359,16 @@
       </c>
       <c r="B53" s="11">
         <f t="shared" si="0"/>
-        <v>11250000</v>
+        <v>9200000</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="12">
-        <v>11600000</v>
+        <v>10750000</v>
       </c>
       <c r="E53" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -3362,16 +3378,16 @@
       </c>
       <c r="B54" s="11">
         <f t="shared" si="0"/>
-        <v>11600000</v>
+        <v>10750000</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="12">
-        <v>12600000</v>
+        <v>11250000</v>
       </c>
       <c r="E54" s="4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -3381,18 +3397,18 @@
       </c>
       <c r="B55" s="11">
         <f t="shared" si="0"/>
-        <v>12600000</v>
+        <v>11250000</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="12">
-        <v>13600000</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>11600000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -3400,16 +3416,16 @@
       </c>
       <c r="B56" s="11">
         <f t="shared" si="0"/>
-        <v>13600000</v>
+        <v>11600000</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="12">
-        <v>14950000</v>
+        <v>12600000</v>
       </c>
       <c r="E56" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -3419,16 +3435,16 @@
       </c>
       <c r="B57" s="11">
         <f t="shared" si="0"/>
-        <v>14950000</v>
+        <v>12600000</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="12">
-        <v>16400000</v>
+        <v>13600000</v>
       </c>
       <c r="E57" s="4">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3438,16 +3454,16 @@
       </c>
       <c r="B58" s="11">
         <f t="shared" si="0"/>
-        <v>16400000</v>
+        <v>13600000</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="12">
-        <v>18450000</v>
+        <v>14950000</v>
       </c>
       <c r="E58" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -3457,16 +3473,16 @@
       </c>
       <c r="B59" s="11">
         <f t="shared" si="0"/>
-        <v>18450000</v>
+        <v>14950000</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="12">
-        <v>21850000</v>
+        <v>16400000</v>
       </c>
       <c r="E59" s="4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -3476,16 +3492,16 @@
       </c>
       <c r="B60" s="11">
         <f t="shared" si="0"/>
-        <v>21850000</v>
+        <v>16400000</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="12">
-        <v>26000000</v>
+        <v>18450000</v>
       </c>
       <c r="E60" s="4">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -3495,16 +3511,16 @@
       </c>
       <c r="B61" s="11">
         <f t="shared" si="0"/>
-        <v>26000000</v>
+        <v>18450000</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="12">
-        <v>27700000</v>
+        <v>21850000</v>
       </c>
       <c r="E61" s="4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F61" s="2"/>
     </row>
@@ -3514,16 +3530,16 @@
       </c>
       <c r="B62" s="11">
         <f t="shared" si="0"/>
-        <v>27700000</v>
+        <v>21850000</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="12">
-        <v>29350000</v>
+        <v>26000000</v>
       </c>
       <c r="E62" s="4">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -3533,16 +3549,16 @@
       </c>
       <c r="B63" s="11">
         <f t="shared" si="0"/>
-        <v>29350000</v>
+        <v>26000000</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="12">
-        <v>31450000</v>
+        <v>27700000</v>
       </c>
       <c r="E63" s="4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -3552,16 +3568,16 @@
       </c>
       <c r="B64" s="11">
         <f t="shared" si="0"/>
-        <v>31450000</v>
+        <v>27700000</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="12">
-        <v>33950000</v>
+        <v>29350000</v>
       </c>
       <c r="E64" s="4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F64" s="2"/>
     </row>
@@ -3571,16 +3587,16 @@
       </c>
       <c r="B65" s="11">
         <f t="shared" si="0"/>
-        <v>33950000</v>
+        <v>29350000</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="12">
-        <v>37100000</v>
+        <v>31450000</v>
       </c>
       <c r="E65" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -3590,16 +3606,16 @@
       </c>
       <c r="B66" s="11">
         <f t="shared" si="0"/>
-        <v>37100000</v>
+        <v>31450000</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="12">
-        <v>41100000</v>
+        <v>33950000</v>
       </c>
       <c r="E66" s="4">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F66" s="2"/>
     </row>
@@ -3609,16 +3625,16 @@
       </c>
       <c r="B67" s="11">
         <f t="shared" si="0"/>
-        <v>41100000</v>
+        <v>33950000</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="12">
-        <v>45800000</v>
+        <v>37100000</v>
       </c>
       <c r="E67" s="4">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F67" s="2"/>
     </row>
@@ -3628,16 +3644,16 @@
       </c>
       <c r="B68" s="11">
         <f t="shared" si="0"/>
-        <v>45800000</v>
+        <v>37100000</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="12">
-        <v>49500000</v>
+        <v>41100000</v>
       </c>
       <c r="E68" s="4">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -3646,17 +3662,17 @@
         <v>8</v>
       </c>
       <c r="B69" s="11">
-        <f t="shared" ref="B69:B125" si="1">D68</f>
-        <v>49500000</v>
+        <f t="shared" si="0"/>
+        <v>41100000</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="12">
-        <v>53800000</v>
+        <v>45800000</v>
       </c>
       <c r="E69" s="4">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F69" s="2"/>
     </row>
@@ -3665,17 +3681,17 @@
         <v>8</v>
       </c>
       <c r="B70" s="11">
-        <f t="shared" si="1"/>
-        <v>53800000</v>
+        <f t="shared" si="0"/>
+        <v>45800000</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="12">
-        <v>58500000</v>
+        <v>49500000</v>
       </c>
       <c r="E70" s="4">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F70" s="2"/>
     </row>
@@ -3684,17 +3700,17 @@
         <v>8</v>
       </c>
       <c r="B71" s="11">
-        <f t="shared" si="1"/>
-        <v>58500000</v>
+        <f t="shared" ref="B71:B127" si="1">D70</f>
+        <v>49500000</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="12">
-        <v>64000000</v>
+        <v>53800000</v>
       </c>
       <c r="E71" s="4">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -3704,16 +3720,16 @@
       </c>
       <c r="B72" s="11">
         <f t="shared" si="1"/>
-        <v>64000000</v>
+        <v>53800000</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="12">
-        <v>71000000</v>
+        <v>58500000</v>
       </c>
       <c r="E72" s="4">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F72" s="2"/>
     </row>
@@ -3723,16 +3739,16 @@
       </c>
       <c r="B73" s="11">
         <f t="shared" si="1"/>
-        <v>71000000</v>
+        <v>58500000</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="12">
-        <v>80000000</v>
+        <v>64000000</v>
       </c>
       <c r="E73" s="4">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F73" s="2"/>
     </row>
@@ -3742,16 +3758,16 @@
       </c>
       <c r="B74" s="11">
         <f t="shared" si="1"/>
-        <v>80000000</v>
+        <v>64000000</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="12">
-        <v>93000000</v>
+        <v>71000000</v>
       </c>
       <c r="E74" s="4">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -3761,16 +3777,16 @@
       </c>
       <c r="B75" s="11">
         <f t="shared" si="1"/>
-        <v>93000000</v>
+        <v>71000000</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="12">
-        <v>109000000</v>
+        <v>80000000</v>
       </c>
       <c r="E75" s="4">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -3780,16 +3796,16 @@
       </c>
       <c r="B76" s="11">
         <f t="shared" si="1"/>
-        <v>109000000</v>
+        <v>80000000</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="12">
-        <v>129000000</v>
+        <v>93000000</v>
       </c>
       <c r="E76" s="4">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -3799,16 +3815,16 @@
       </c>
       <c r="B77" s="11">
         <f t="shared" si="1"/>
-        <v>129000000</v>
+        <v>93000000</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="12">
-        <v>163000000</v>
+        <v>109000000</v>
       </c>
       <c r="E77" s="4">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -3818,16 +3834,16 @@
       </c>
       <c r="B78" s="11">
         <f t="shared" si="1"/>
-        <v>163000000</v>
+        <v>109000000</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="12">
-        <v>211000000</v>
+        <v>129000000</v>
       </c>
       <c r="E78" s="4">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3837,16 +3853,16 @@
       </c>
       <c r="B79" s="11">
         <f t="shared" si="1"/>
-        <v>211000000</v>
+        <v>129000000</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="12">
-        <v>374000000</v>
+        <v>163000000</v>
       </c>
       <c r="E79" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -3856,16 +3872,16 @@
       </c>
       <c r="B80" s="11">
         <f t="shared" si="1"/>
-        <v>374000000</v>
+        <v>163000000</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="12">
-        <v>459000000</v>
+        <v>211000000</v>
       </c>
       <c r="E80" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="F80" s="2"/>
     </row>
@@ -3875,16 +3891,16 @@
       </c>
       <c r="B81" s="11">
         <f t="shared" si="1"/>
-        <v>459000000</v>
+        <v>211000000</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="12">
-        <v>555000000</v>
+        <v>374000000</v>
       </c>
       <c r="E81" s="4">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F81" s="2"/>
     </row>
@@ -3894,16 +3910,16 @@
       </c>
       <c r="B82" s="11">
         <f t="shared" si="1"/>
-        <v>555000000</v>
+        <v>374000000</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="12">
-        <v>704000000</v>
+        <v>459000000</v>
       </c>
       <c r="E82" s="4">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3913,16 +3929,16 @@
       </c>
       <c r="B83" s="11">
         <f t="shared" si="1"/>
-        <v>704000000</v>
+        <v>459000000</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="12">
-        <v>957000000</v>
+        <v>555000000</v>
       </c>
       <c r="E83" s="4">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3932,16 +3948,16 @@
       </c>
       <c r="B84" s="11">
         <f t="shared" si="1"/>
-        <v>957000000</v>
+        <v>555000000</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="12">
-        <v>1405000000</v>
+        <v>704000000</v>
       </c>
       <c r="E84" s="4">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3949,75 +3965,75 @@
       <c r="A85" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="18">
-        <v>1400000000</v>
+      <c r="B85" s="11">
+        <f t="shared" si="1"/>
+        <v>704000000</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="19">
-        <v>1000000000000</v>
+      <c r="D85" s="12">
+        <v>957000000</v>
       </c>
       <c r="E85" s="4">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" s="11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>957000000</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="12">
-        <v>6600000</v>
+        <v>1405000000</v>
       </c>
       <c r="E86" s="4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="11">
-        <f t="shared" si="1"/>
-        <v>6600000</v>
+        <v>8</v>
+      </c>
+      <c r="B87" s="15">
+        <v>1400000000</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="12">
-        <v>6950000</v>
-      </c>
-      <c r="E87" s="5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F87" s="1"/>
+      <c r="D87" s="16">
+        <v>1000000000000</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="11">
-        <f t="shared" si="1"/>
-        <v>6950000</v>
+        <v>0</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="12">
-        <v>7350000</v>
-      </c>
-      <c r="E88" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>6600000</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
@@ -4025,16 +4041,16 @@
       </c>
       <c r="B89" s="11">
         <f t="shared" si="1"/>
-        <v>7350000</v>
+        <v>6600000</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="12">
-        <v>7800000</v>
+        <v>6950000</v>
       </c>
       <c r="E89" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -4044,18 +4060,18 @@
       </c>
       <c r="B90" s="11">
         <f t="shared" si="1"/>
-        <v>7800000</v>
+        <v>6950000</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="12">
-        <v>8850000</v>
-      </c>
-      <c r="E90" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>7350000</v>
+      </c>
+      <c r="E90" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
@@ -4063,16 +4079,16 @@
       </c>
       <c r="B91" s="11">
         <f t="shared" si="1"/>
-        <v>8850000</v>
+        <v>7350000</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="12">
-        <v>9800000</v>
+        <v>7800000</v>
       </c>
       <c r="E91" s="5">
-        <v>1.2500000000000001E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -4082,18 +4098,18 @@
       </c>
       <c r="B92" s="11">
         <f t="shared" si="1"/>
-        <v>9800000</v>
+        <v>7800000</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="12">
-        <v>10950000</v>
-      </c>
-      <c r="E92" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F92" s="1"/>
+        <v>8850000</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
@@ -4101,16 +4117,16 @@
       </c>
       <c r="B93" s="11">
         <f t="shared" si="1"/>
-        <v>10950000</v>
+        <v>8850000</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="12">
-        <v>11200000</v>
+        <v>9800000</v>
       </c>
       <c r="E93" s="5">
-        <v>1.7500000000000002E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -4120,18 +4136,18 @@
       </c>
       <c r="B94" s="11">
         <f t="shared" si="1"/>
-        <v>11200000</v>
+        <v>9800000</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="12">
-        <v>12050000</v>
-      </c>
-      <c r="E94" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F94" s="2"/>
+        <v>10950000</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
@@ -4139,18 +4155,18 @@
       </c>
       <c r="B95" s="11">
         <f t="shared" si="1"/>
-        <v>12050000</v>
+        <v>10950000</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="12">
-        <v>12950000</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>11200000</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
@@ -4158,16 +4174,16 @@
       </c>
       <c r="B96" s="11">
         <f t="shared" si="1"/>
-        <v>12950000</v>
+        <v>11200000</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="12">
-        <v>14150000</v>
+        <v>12050000</v>
       </c>
       <c r="E96" s="4">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -4177,16 +4193,16 @@
       </c>
       <c r="B97" s="11">
         <f t="shared" si="1"/>
-        <v>14150000</v>
+        <v>12050000</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="12">
-        <v>15550000</v>
+        <v>12950000</v>
       </c>
       <c r="E97" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -4196,16 +4212,16 @@
       </c>
       <c r="B98" s="11">
         <f t="shared" si="1"/>
-        <v>15550000</v>
+        <v>12950000</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="12">
-        <v>17050000</v>
+        <v>14150000</v>
       </c>
       <c r="E98" s="4">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -4215,16 +4231,16 @@
       </c>
       <c r="B99" s="11">
         <f t="shared" si="1"/>
-        <v>17050000</v>
+        <v>14150000</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="12">
-        <v>19500000</v>
+        <v>15550000</v>
       </c>
       <c r="E99" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -4234,16 +4250,16 @@
       </c>
       <c r="B100" s="11">
         <f t="shared" si="1"/>
-        <v>19500000</v>
+        <v>15550000</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="12">
-        <v>22700000</v>
+        <v>17050000</v>
       </c>
       <c r="E100" s="4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -4253,16 +4269,16 @@
       </c>
       <c r="B101" s="11">
         <f t="shared" si="1"/>
-        <v>22700000</v>
+        <v>17050000</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="12">
-        <v>26600000</v>
+        <v>19500000</v>
       </c>
       <c r="E101" s="4">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -4272,16 +4288,16 @@
       </c>
       <c r="B102" s="11">
         <f t="shared" si="1"/>
-        <v>26600000</v>
+        <v>19500000</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="12">
-        <v>28100000</v>
+        <v>22700000</v>
       </c>
       <c r="E102" s="4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -4291,16 +4307,16 @@
       </c>
       <c r="B103" s="11">
         <f t="shared" si="1"/>
-        <v>28100000</v>
+        <v>22700000</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="12">
-        <v>30100000</v>
+        <v>26600000</v>
       </c>
       <c r="E103" s="4">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -4310,16 +4326,16 @@
       </c>
       <c r="B104" s="11">
         <f t="shared" si="1"/>
-        <v>30100000</v>
+        <v>26600000</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="12">
-        <v>32600000</v>
+        <v>28100000</v>
       </c>
       <c r="E104" s="4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -4329,16 +4345,16 @@
       </c>
       <c r="B105" s="11">
         <f t="shared" si="1"/>
-        <v>32600000</v>
+        <v>28100000</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="12">
-        <v>35400000</v>
+        <v>30100000</v>
       </c>
       <c r="E105" s="4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -4348,16 +4364,16 @@
       </c>
       <c r="B106" s="11">
         <f t="shared" si="1"/>
-        <v>35400000</v>
+        <v>30100000</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="12">
-        <v>38900000</v>
+        <v>32600000</v>
       </c>
       <c r="E106" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -4367,16 +4383,16 @@
       </c>
       <c r="B107" s="11">
         <f t="shared" si="1"/>
-        <v>38900000</v>
+        <v>32600000</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="12">
-        <v>43000000</v>
+        <v>35400000</v>
       </c>
       <c r="E107" s="4">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -4386,16 +4402,16 @@
       </c>
       <c r="B108" s="11">
         <f t="shared" si="1"/>
-        <v>43000000</v>
+        <v>35400000</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="12">
-        <v>47400000</v>
+        <v>38900000</v>
       </c>
       <c r="E108" s="4">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -4405,16 +4421,16 @@
       </c>
       <c r="B109" s="11">
         <f t="shared" si="1"/>
-        <v>47400000</v>
+        <v>38900000</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="12">
-        <v>51200000</v>
+        <v>43000000</v>
       </c>
       <c r="E109" s="4">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -4424,16 +4440,16 @@
       </c>
       <c r="B110" s="11">
         <f t="shared" si="1"/>
-        <v>51200000</v>
+        <v>43000000</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="12">
-        <v>55800000</v>
+        <v>47400000</v>
       </c>
       <c r="E110" s="4">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -4443,16 +4459,16 @@
       </c>
       <c r="B111" s="11">
         <f t="shared" si="1"/>
-        <v>55800000</v>
+        <v>47400000</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="12">
-        <v>60400000</v>
+        <v>51200000</v>
       </c>
       <c r="E111" s="4">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -4462,16 +4478,16 @@
       </c>
       <c r="B112" s="11">
         <f t="shared" si="1"/>
-        <v>60400000</v>
+        <v>51200000</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="12">
-        <v>66700000</v>
+        <v>55800000</v>
       </c>
       <c r="E112" s="4">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -4481,16 +4497,16 @@
       </c>
       <c r="B113" s="11">
         <f t="shared" si="1"/>
-        <v>66700000</v>
+        <v>55800000</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="12">
-        <v>74500000</v>
+        <v>60400000</v>
       </c>
       <c r="E113" s="4">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -4500,16 +4516,16 @@
       </c>
       <c r="B114" s="11">
         <f t="shared" si="1"/>
-        <v>74500000</v>
+        <v>60400000</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="12">
-        <v>83200000</v>
+        <v>66700000</v>
       </c>
       <c r="E114" s="4">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -4519,16 +4535,16 @@
       </c>
       <c r="B115" s="11">
         <f t="shared" si="1"/>
-        <v>83200000</v>
+        <v>66700000</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="12">
-        <v>95600000</v>
+        <v>74500000</v>
       </c>
       <c r="E115" s="4">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -4538,16 +4554,16 @@
       </c>
       <c r="B116" s="11">
         <f t="shared" si="1"/>
-        <v>95600000</v>
+        <v>74500000</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="12">
-        <v>110000000</v>
+        <v>83200000</v>
       </c>
       <c r="E116" s="4">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -4557,16 +4573,16 @@
       </c>
       <c r="B117" s="11">
         <f t="shared" si="1"/>
-        <v>110000000</v>
+        <v>83200000</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="12">
-        <v>134000000</v>
+        <v>95600000</v>
       </c>
       <c r="E117" s="4">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -4576,16 +4592,16 @@
       </c>
       <c r="B118" s="11">
         <f t="shared" si="1"/>
-        <v>134000000</v>
+        <v>95600000</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="12">
-        <v>169000000</v>
+        <v>110000000</v>
       </c>
       <c r="E118" s="4">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -4595,16 +4611,16 @@
       </c>
       <c r="B119" s="11">
         <f t="shared" si="1"/>
-        <v>169000000</v>
+        <v>110000000</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="12">
-        <v>221000000</v>
+        <v>134000000</v>
       </c>
       <c r="E119" s="4">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -4614,16 +4630,16 @@
       </c>
       <c r="B120" s="11">
         <f t="shared" si="1"/>
-        <v>221000000</v>
+        <v>134000000</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="12">
-        <v>390000000</v>
+        <v>169000000</v>
       </c>
       <c r="E120" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -4633,16 +4649,16 @@
       </c>
       <c r="B121" s="11">
         <f t="shared" si="1"/>
-        <v>390000000</v>
+        <v>169000000</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="12">
-        <v>463000000</v>
+        <v>221000000</v>
       </c>
       <c r="E121" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -4652,16 +4668,16 @@
       </c>
       <c r="B122" s="11">
         <f t="shared" si="1"/>
-        <v>463000000</v>
+        <v>221000000</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="12">
-        <v>561000000</v>
+        <v>390000000</v>
       </c>
       <c r="E122" s="4">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -4671,16 +4687,16 @@
       </c>
       <c r="B123" s="11">
         <f t="shared" si="1"/>
-        <v>561000000</v>
+        <v>390000000</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="12">
-        <v>709000000</v>
+        <v>463000000</v>
       </c>
       <c r="E123" s="4">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -4690,16 +4706,16 @@
       </c>
       <c r="B124" s="11">
         <f t="shared" si="1"/>
-        <v>709000000</v>
+        <v>463000000</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="12">
-        <v>965000000</v>
+        <v>561000000</v>
       </c>
       <c r="E124" s="4">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -4709,40 +4725,78 @@
       </c>
       <c r="B125" s="11">
         <f t="shared" si="1"/>
+        <v>561000000</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="12">
+        <v>709000000</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="11">
+        <f t="shared" si="1"/>
+        <v>709000000</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="12">
         <v>965000000</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="12">
+      <c r="E126" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="11">
+        <f t="shared" si="1"/>
+        <v>965000000</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="12">
         <v>1419000000</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E127" s="4">
         <v>0.33</v>
       </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B128" s="15">
         <v>1400000000</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="19">
+      <c r="C128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="16">
         <v>1000000000000</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E128" s="6">
         <v>0.34</v>
       </c>
-      <c r="F126" s="2"/>
+      <c r="F128" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TakeHomePayGrossPP58_2024.xlsx
+++ b/TakeHomePayGrossPP58_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6AFE98-F6E4-4453-A14E-F0A01851CB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A400C3-FFE4-43EA-8EDA-24F26F2E3978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="TERB">DaftarTarifEfektif!$B$48:$E$87</definedName>
     <definedName name="TERC">DaftarTarifEfektif!$B$88:$E$128</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="101">
   <si>
     <t>Jenis TER</t>
   </si>
@@ -153,18 +153,6 @@
     <t>Gaji Pokok</t>
   </si>
   <si>
-    <t>Tunjangan A</t>
-  </si>
-  <si>
-    <t>Tunjangan B</t>
-  </si>
-  <si>
-    <t>Insentif A</t>
-  </si>
-  <si>
-    <t>Insentif B</t>
-  </si>
-  <si>
     <t>009</t>
   </si>
   <si>
@@ -324,9 +312,6 @@
     <t>Contoh Perhitungan Take Home Pay Metode Gross dan PPh Januari 2024 menurut PP Nomor 58 Tahun 2023 tentang Tarif Pemotongan PPh 21 menggunakan Tarif Efektif (TER)</t>
   </si>
   <si>
-    <t>Tarif Efektif</t>
-  </si>
-  <si>
     <t>Bulan</t>
   </si>
   <si>
@@ -337,6 +322,27 @@
   </si>
   <si>
     <t>Sebagai Perwujudan Ilmu yang telah dipelajari</t>
+  </si>
+  <si>
+    <t>Tunjangan</t>
+  </si>
+  <si>
+    <t>THR</t>
+  </si>
+  <si>
+    <t>Insentif</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Lembur</t>
+  </si>
+  <si>
+    <t>Premi JKK &amp; JKM</t>
+  </si>
+  <si>
+    <t>TarifEfektif</t>
   </si>
 </sst>
 </file>
@@ -559,6 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,9 +575,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -853,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C715A7-E6C3-44EF-9FF8-3ED308E11119}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="K9" sqref="K9:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,89 +875,95 @@
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="26" t="str">
-        <f>"PPh " &amp;B6</f>
-        <v>PPh Januari</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f>"PPh " &amp; A6</f>
+        <v>PPh Bulan</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
@@ -973,23 +989,29 @@
         <v>0</v>
       </c>
       <c r="I9" s="20">
-        <f>D9+E9+F9+G9+H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <f>D9+E9+F9+G9+H9+I9+J9</f>
         <v>10000000</v>
       </c>
-      <c r="J9" s="17">
-        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,CHOOSE(VLOOKUP(C9,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
+      <c r="L9" s="17">
+        <f t="shared" ref="L9:L40" si="0">VLOOKUP(K9,CHOOSE(VLOOKUP(C9,TER,2,FALSE),TERA,TERB,TERC),4,TRUE)</f>
         <v>0.02</v>
       </c>
-      <c r="K9" s="20">
-        <f>I9*J9</f>
+      <c r="M9" s="20">
+        <f>K9*L9</f>
         <v>200000</v>
       </c>
-      <c r="L9" s="20">
-        <f>I9-K9</f>
+      <c r="N9" s="20">
+        <f>K9-M9</f>
         <v>9800000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -1015,23 +1037,29 @@
         <v>0</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" ref="I10:I16" si="1">D10+E10+F10+G10+H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" ref="K10:K40" si="1">D10+E10+F10+G10+H10+I10+J10</f>
         <v>10000000</v>
       </c>
-      <c r="J10" s="17">
+      <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="K10" s="20">
-        <f t="shared" ref="K10:K16" si="2">I10*J10</f>
+      <c r="M10" s="20">
+        <f t="shared" ref="M10:M16" si="2">K10*L10</f>
         <v>200000</v>
       </c>
-      <c r="L10" s="20">
-        <f t="shared" ref="L10:L40" si="3">I10-K10</f>
+      <c r="N10" s="20">
+        <f t="shared" ref="N10:N40" si="3">K10-M10</f>
         <v>9800000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
@@ -1057,23 +1085,29 @@
         <v>0</v>
       </c>
       <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="J11" s="17">
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K11" s="20">
+      <c r="M11" s="20">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="L11" s="20">
+      <c r="N11" s="20">
         <f t="shared" si="3"/>
         <v>9850000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
@@ -1099,23 +1133,29 @@
         <v>0</v>
       </c>
       <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="J12" s="17">
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K12" s="20">
+      <c r="M12" s="20">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="L12" s="20">
+      <c r="N12" s="20">
         <f t="shared" si="3"/>
         <v>9850000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
@@ -1141,23 +1181,29 @@
         <v>0</v>
       </c>
       <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="J13" s="17">
+      <c r="L13" s="17">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="K13" s="20">
+      <c r="M13" s="20">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="L13" s="20">
+      <c r="N13" s="20">
         <f t="shared" si="3"/>
         <v>9800000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>25</v>
       </c>
@@ -1183,23 +1229,29 @@
         <v>0</v>
       </c>
       <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="J14" s="17">
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K14" s="20">
+      <c r="M14" s="20">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="L14" s="20">
+      <c r="N14" s="20">
         <f t="shared" si="3"/>
         <v>9850000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
@@ -1225,23 +1277,29 @@
         <v>0</v>
       </c>
       <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="J15" s="17">
+      <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K15" s="20">
+      <c r="M15" s="20">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="L15" s="20">
+      <c r="N15" s="20">
         <f t="shared" si="3"/>
         <v>9850000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
@@ -1267,28 +1325,34 @@
         <v>0</v>
       </c>
       <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="J16" s="17">
+      <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K16" s="20">
+      <c r="M16" s="20">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="L16" s="20">
+      <c r="N16" s="20">
         <f t="shared" si="3"/>
         <v>9850000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1309,28 +1373,34 @@
         <v>0</v>
       </c>
       <c r="I17" s="20">
-        <f>D17+E17+F17+G17+H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="1"/>
         <v>20000000</v>
       </c>
-      <c r="J17" s="17">
+      <c r="L17" s="17">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="K17" s="20">
-        <f>I17*J17</f>
+      <c r="M17" s="20">
+        <f>K17*L17</f>
         <v>1800000</v>
       </c>
-      <c r="L17" s="20">
+      <c r="N17" s="20">
         <f t="shared" si="3"/>
         <v>18200000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1351,28 +1421,34 @@
         <v>0</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" ref="I18:I24" si="4">D18+E18+F18+G18+H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="1"/>
         <v>20000000</v>
       </c>
-      <c r="J18" s="17">
+      <c r="L18" s="17">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="K18" s="20">
-        <f t="shared" ref="K18:K24" si="5">I18*J18</f>
+      <c r="M18" s="20">
+        <f t="shared" ref="M18:M24" si="4">K18*L18</f>
         <v>1800000</v>
       </c>
-      <c r="L18" s="20">
+      <c r="N18" s="20">
         <f t="shared" si="3"/>
         <v>18200000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1393,28 +1469,34 @@
         <v>0</v>
       </c>
       <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="1"/>
+        <v>20000000</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="M19" s="20">
         <f t="shared" si="4"/>
-        <v>20000000</v>
-      </c>
-      <c r="J19" s="17">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="K19" s="20">
-        <f t="shared" si="5"/>
         <v>1600000</v>
       </c>
-      <c r="L19" s="20">
+      <c r="N19" s="20">
         <f t="shared" si="3"/>
         <v>18400000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1435,28 +1517,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="1"/>
+        <v>20000000</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="M20" s="20">
         <f t="shared" si="4"/>
-        <v>20000000</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="K20" s="20">
-        <f t="shared" si="5"/>
         <v>1600000</v>
       </c>
-      <c r="L20" s="20">
+      <c r="N20" s="20">
         <f t="shared" si="3"/>
         <v>18400000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1477,28 +1565,34 @@
         <v>0</v>
       </c>
       <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="1"/>
+        <v>20000000</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M21" s="20">
         <f t="shared" si="4"/>
-        <v>20000000</v>
-      </c>
-      <c r="J21" s="17">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="K21" s="20">
-        <f t="shared" si="5"/>
         <v>1800000</v>
       </c>
-      <c r="L21" s="20">
+      <c r="N21" s="20">
         <f t="shared" si="3"/>
         <v>18200000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1519,28 +1613,34 @@
         <v>0</v>
       </c>
       <c r="I22" s="20">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="1"/>
+        <v>20000000</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="M22" s="20">
         <f t="shared" si="4"/>
-        <v>20000000</v>
-      </c>
-      <c r="J22" s="17">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="K22" s="20">
-        <f t="shared" si="5"/>
         <v>1600000</v>
       </c>
-      <c r="L22" s="20">
+      <c r="N22" s="20">
         <f t="shared" si="3"/>
         <v>18400000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1561,28 +1661,34 @@
         <v>0</v>
       </c>
       <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="1"/>
+        <v>20000000</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="M23" s="20">
         <f t="shared" si="4"/>
-        <v>20000000</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="K23" s="20">
-        <f t="shared" si="5"/>
         <v>1600000</v>
       </c>
-      <c r="L23" s="20">
+      <c r="N23" s="20">
         <f t="shared" si="3"/>
         <v>18400000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1603,28 +1709,34 @@
         <v>0</v>
       </c>
       <c r="I24" s="20">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="1"/>
+        <v>20000000</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="M24" s="20">
         <f t="shared" si="4"/>
-        <v>20000000</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="K24" s="20">
-        <f t="shared" si="5"/>
         <v>1600000</v>
       </c>
-      <c r="L24" s="20">
+      <c r="N24" s="20">
         <f t="shared" si="3"/>
         <v>18400000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1645,28 +1757,34 @@
         <v>0</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" ref="I25:I40" si="6">D25+E25+F25+G25+H25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J25" s="17">
+      <c r="L25" s="17">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K25" s="20">
-        <f t="shared" ref="K25:K40" si="7">I25*J25</f>
+      <c r="M25" s="20">
+        <f t="shared" ref="M25:M40" si="5">K25*L25</f>
         <v>3600000</v>
       </c>
-      <c r="L25" s="20">
+      <c r="N25" s="20">
         <f t="shared" si="3"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1687,28 +1805,34 @@
         <v>0</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J26" s="17">
+      <c r="L26" s="17">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K26" s="20">
-        <f t="shared" si="7"/>
+      <c r="M26" s="20">
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
-      <c r="L26" s="20">
+      <c r="N26" s="20">
         <f t="shared" si="3"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1729,28 +1853,34 @@
         <v>0</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J27" s="17">
+      <c r="L27" s="17">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K27" s="20">
-        <f t="shared" si="7"/>
+      <c r="M27" s="20">
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
-      <c r="L27" s="20">
+      <c r="N27" s="20">
         <f t="shared" si="3"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1771,28 +1901,34 @@
         <v>0</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J28" s="17">
+      <c r="L28" s="17">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K28" s="20">
-        <f t="shared" si="7"/>
+      <c r="M28" s="20">
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
-      <c r="L28" s="20">
+      <c r="N28" s="20">
         <f t="shared" si="3"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1813,28 +1949,34 @@
         <v>0</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J29" s="17">
+      <c r="L29" s="17">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K29" s="20">
-        <f t="shared" si="7"/>
+      <c r="M29" s="20">
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
-      <c r="L29" s="20">
+      <c r="N29" s="20">
         <f t="shared" si="3"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1855,28 +1997,34 @@
         <v>0</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0</v>
+      </c>
+      <c r="K30" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J30" s="17">
+      <c r="L30" s="17">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K30" s="20">
-        <f t="shared" si="7"/>
+      <c r="M30" s="20">
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
-      <c r="L30" s="20">
+      <c r="N30" s="20">
         <f t="shared" si="3"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1897,28 +2045,34 @@
         <v>0</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J31" s="17">
+      <c r="L31" s="17">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="K31" s="20">
-        <f t="shared" si="7"/>
+      <c r="M31" s="20">
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
-      <c r="L31" s="20">
+      <c r="N31" s="20">
         <f t="shared" si="3"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1939,28 +2093,34 @@
         <v>0</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="20">
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J32" s="17">
+      <c r="L32" s="17">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
-      <c r="K32" s="20">
-        <f t="shared" si="7"/>
+      <c r="M32" s="20">
+        <f t="shared" si="5"/>
         <v>3300000</v>
       </c>
-      <c r="L32" s="20">
+      <c r="N32" s="20">
         <f t="shared" si="3"/>
         <v>26700000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1981,28 +2141,34 @@
         <v>0</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0</v>
+      </c>
+      <c r="K33" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J33" s="17">
+      <c r="L33" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K33" s="20">
-        <f t="shared" si="7"/>
+      <c r="M33" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L33" s="20">
+      <c r="N33" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -2023,28 +2189,34 @@
         <v>0</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="20">
+        <v>0</v>
+      </c>
+      <c r="K34" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J34" s="17">
+      <c r="L34" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K34" s="20">
-        <f t="shared" si="7"/>
+      <c r="M34" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L34" s="20">
+      <c r="N34" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2065,28 +2237,34 @@
         <v>0</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="20">
+        <v>0</v>
+      </c>
+      <c r="K35" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J35" s="17">
+      <c r="L35" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K35" s="20">
-        <f t="shared" si="7"/>
+      <c r="M35" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L35" s="20">
+      <c r="N35" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -2107,28 +2285,34 @@
         <v>0</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J36" s="17">
+      <c r="L36" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K36" s="20">
-        <f t="shared" si="7"/>
+      <c r="M36" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L36" s="20">
+      <c r="N36" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2149,28 +2333,34 @@
         <v>0</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="20">
+        <v>0</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J37" s="17">
+      <c r="L37" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K37" s="20">
-        <f t="shared" si="7"/>
+      <c r="M37" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L37" s="20">
+      <c r="N37" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2191,28 +2381,34 @@
         <v>0</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="20">
+        <v>0</v>
+      </c>
+      <c r="K38" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J38" s="17">
+      <c r="L38" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K38" s="20">
-        <f t="shared" si="7"/>
+      <c r="M38" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L38" s="20">
+      <c r="N38" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2233,28 +2429,34 @@
         <v>0</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="20">
+        <v>0</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J39" s="17">
+      <c r="L39" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K39" s="20">
-        <f t="shared" si="7"/>
+      <c r="M39" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L39" s="20">
+      <c r="N39" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2275,18 +2477,24 @@
         <v>0</v>
       </c>
       <c r="I40" s="20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="J40" s="17">
+      <c r="L40" s="17">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="K40" s="20">
-        <f t="shared" si="7"/>
+      <c r="M40" s="20">
+        <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="L40" s="20">
+      <c r="N40" s="20">
         <f t="shared" si="3"/>
         <v>76000000</v>
       </c>
@@ -2320,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2328,11 +2536,11 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
